--- a/listas/InvoiceStatus-2024-02-28.xlsx
+++ b/listas/InvoiceStatus-2024-02-28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\RUVLO 2.0\listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702DE44-7CA3-4EAD-A332-A7298D5EF967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B151E-3BFB-4EAA-95DA-3686DCFDD1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -37,25 +37,10 @@
     <t>Aprobada</t>
   </si>
   <si>
-    <t>Rechazada</t>
-  </si>
-  <si>
-    <t>En tránsito</t>
-  </si>
-  <si>
-    <t>Recibida</t>
-  </si>
-  <si>
     <t>Completada</t>
   </si>
   <si>
     <t>Cancelada</t>
-  </si>
-  <si>
-    <t>Devuelta</t>
-  </si>
-  <si>
-    <t>Parcialmente completada</t>
   </si>
 </sst>
 </file>
@@ -410,11 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,46 +452,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
